--- a/server/seeds/景区风光.xlsx
+++ b/server/seeds/景区风光.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="11595" activeTab="1"/>
+    <workbookView windowWidth="24240" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="景点一览" sheetId="35" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
   <si>
     <t>标题</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>正文</t>
-  </si>
-  <si>
-    <t>缩略图</t>
   </si>
   <si>
     <t>景点一览1</t>
@@ -254,8 +251,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -282,6 +279,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -296,8 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +311,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,17 +348,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,7 +372,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,14 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,35 +402,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -420,31 +417,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,151 +567,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +608,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,6 +646,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,64 +708,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,131 +726,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,22 +1175,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="38.75" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1206,204 +1202,201 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1415,22 +1408,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="38.75" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,22 +1435,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1470,22 +1459,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="38.75" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1498,22 +1486,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1525,22 +1510,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="38.75" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,232 +1537,229 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1790,22 +1771,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="38.75" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1818,274 +1798,271 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
